--- a/biology/Botanique/Banara_guianensis/Banara_guianensis.xlsx
+++ b/biology/Botanique/Banara_guianensis/Banara_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banara guianensis est une espèce de plantes à fleurs de la famille des Salicaceae (anciennement des Flacourtiaceae). Il s'agit de l'espèce type du genre Banara Aubl.. C'est un arbuste néotropical.
-En Guyane, on le connaît sous les noms de mavévé sucrier (Créole), mulei sĩ (Wayãpi), tahuma (Palikur)[2], Weti bita tiki (uman) (Aluku)[3].
-Au suriname, on l'appelle Bimiti joelèkoko (Arawak), Moembo etase pocté (Karib), Pickien fouroe dioifi (sranan tongo)[4].
-Au Venezuela, on le nomme Guanábana silvestre, Pan de acure, Pinito blanco, Rastrojero, Rastrojero blanco, Vara blanca (Espagnol), Ya’-ra paya yo’ (Panaré)[5].
+En Guyane, on le connaît sous les noms de mavévé sucrier (Créole), mulei sĩ (Wayãpi), tahuma (Palikur), Weti bita tiki (uman) (Aluku).
+Au suriname, on l'appelle Bimiti joelèkoko (Arawak), Moembo etase pocté (Karib), Pickien fouroe dioifi (sranan tongo).
+Au Venezuela, on le nomme Guanábana silvestre, Pan de acure, Pinito blanco, Rastrojero, Rastrojero blanco, Vara blanca (Espagnol), Ya’-ra paya yo’ (Panaré).
 </t>
         </is>
       </c>
@@ -514,13 +526,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Banara guianensis est un arbuste haut d'environ 6 m.
 Les feuilles mesurent 4–10(–15) cm de long pour 3,5-7 cm de large, ont les marges dentelées (environ 20–25 dents de chaque côté, avec des sinus profonds d'environ 1–2 mm entre les dentelures), avec une petite glande en cupuliforme à chaque dent, et une grande à la face supérieure de la base de la feuille (qui est arrondie ou subcordée). Le limbe est courtement acuminées au sommet, de forme oblongue ou étroitement oblongue, avec une pubescence brunâtre sur les nervures de la face inférieure qui apparaît globalement brunâtre.
 Ses inflorescences grisâtres et pubérulentes, sont des panicules pyramidaux, très fleuris, longs de 10–40 cm.
 Les boutons floraux de mesurent 2 à 4 mm de diamètre. Les fleurs jaunes sont trimères (plus rarement tétramères), et mesurent environ 8 mm de diamètre. Le placenta lamelliforme est divisé en 5-8.
-Le fruit sub-globuleux mesure 8 mm de diamètre, est couvert d'une peau finement coriace, a l'intérieur pulpeux, et contient des graines ∞ ellipsoïdes, à côtes noires  longues de 1-1,5 mm[4],[5].
+Le fruit sub-globuleux mesure 8 mm de diamètre, est couvert d'une peau finement coriace, a l'intérieur pulpeux, et contient des graines ∞ ellipsoïdes, à côtes noires  longues de 1-1,5 mm,.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Banara guianensis est largement répandu du Costa Rica au Brésil en passant par le Nicaragua, le Panama, Trinidad, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'est du Pérou (Amazonas) et la Bolivie[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Banara guianensis est largement répandu du Costa Rica au Brésil en passant par le Nicaragua, le Panama, Trinidad, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'est du Pérou (Amazonas) et la Bolivie,.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Banara guianensis est un petit arbre commun dans les forêts secondaires[2] et les Forêts de plaine à feuilles caduques à sempervirentes, les écotones forêt-savane, les affleurements granitiques à (0)50–600 m d'altitude[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Banara guianensis est un petit arbre commun dans les forêts secondaires et les Forêts de plaine à feuilles caduques à sempervirentes, les écotones forêt-savane, les affleurements granitiques à (0)50–600 m d'altitude.
 </t>
         </is>
       </c>
@@ -611,10 +629,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, la décoction de Banara guianensis sert de base à un remède Créole contre les maladies de foie[2].
-Les Aluku emploient cette plante au goût amer, contre les douleurs abdominales et les troubles gatro-intestinaux, parfois contre la fièvre[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, la décoction de Banara guianensis sert de base à un remède Créole contre les maladies de foie.
+Les Aluku emploient cette plante au goût amer, contre les douleurs abdominales et les troubles gatro-intestinaux, parfois contre la fièvre.
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant pour Banara guianensis[6] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant pour Banara guianensis : 
 « BANARA Guianenſis. (Tabula 217.) 
 Arbor decempedalis ; ramos plures hinc &amp; indè ſparſos emittens; Folia alterna, ovato-oblonga 3 denticulata, acuta, ſupernè viridia, infernè ſubtomentoſa, pallide virentia, brevi petiolata. Stipule exiguae, decidual, ad baſim petioli. Flores racemoſi, axillares &amp; terminales. Ramuli &amp; pedunculi florum ad baſim squamula muniti. 
 Florebat Maio, fructum ferebat Julio. 
